--- a/UI自动化/haipiTeam/自动化测试/TestData/FrontData/项目页/项目属性模板表1.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/TestData/FrontData/项目页/项目属性模板表1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllDownload\Chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5311892-5EFA-46B6-8F73-F91F93AAE5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95409D-9E36-4150-B13A-347626459A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,37 +25,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>属性类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注释：表头不可修改、不可存在相同属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +80,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,7 +90,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,10 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -398,53 +400,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UI自动化/haipiTeam/自动化测试/TestData/FrontData/项目页/项目属性模板表1.xlsx
+++ b/UI自动化/haipiTeam/自动化测试/TestData/FrontData/项目页/项目属性模板表1.xlsx
@@ -1,48 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllDownload\Chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95409D-9E36-4150-B13A-347626459A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3CEB9-CD7A-44A4-ADEA-6D07E1C551CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3036" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
-  <si>
-    <t>属性类别</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+  <si>
+    <t>Service Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性描述</t>
+    <t>Attribute Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注释：表头不可修改、不可存在相同属性名</t>
+    <t>Attribute Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性名称</t>
+    <t>Attribute Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Note: The header cannot be modified and the same attribute name cannot exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
@@ -50,31 +49,26 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -90,18 +84,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="52"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,15 +101,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -138,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -154,7 +179,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -166,7 +191,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -183,7 +208,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -213,12 +238,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -248,6 +290,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,68 +459,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>